--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq_full/AVERAGE_1_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq_full.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq_full/AVERAGE_1_9_qoq_errors_latest_eval_ifoCASTset_naive_qoq_full.xlsx
@@ -582,34 +582,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>0.04231489763667018</v>
+      </c>
+      <c r="C2">
         <v>-1.112737948256028</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.426895895633562</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.1572417756599283</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.7087734795590415</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.482846718646189</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.5906624340427387</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.4942628133784369</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.9976736988314454</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.256195640754894</v>
-      </c>
-      <c r="K2">
-        <v>-0.4677869442234193</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -617,34 +617,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>1.228061995268202</v>
+      </c>
+      <c r="C3">
         <v>0.9584078752945684</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.509939579193682</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.284012818280829</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.391828533677379</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.295428913013077</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.798839798466086</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2.057361740389535</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.3333791554112209</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.9870183717739222</v>
-      </c>
-      <c r="K3">
-        <v>1.350562306682353</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -652,34 +652,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.5137754236260815</v>
+      </c>
+      <c r="C4">
         <v>0.2878486627132291</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.3956643781097787</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.299264757445477</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.8026756428984855</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1.061197584821935</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.6627850001563792</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-0.00914578379367792</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.3543981511147533</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.5463776937648762</v>
-      </c>
-      <c r="K4">
-        <v>0.5239978631887766</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,34 +687,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.4028038717171413</v>
+      </c>
+      <c r="C5">
         <v>0.3064042510528396</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.8098151365058481</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.068337078429297</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.6556455065490165</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-0.002006290186315263</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.3615376447221159</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.5392382001575136</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.5311373567961393</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.04592255722032257</v>
-      </c>
-      <c r="K5">
-        <v>-0.2515285413133388</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -722,34 +722,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.5336388157440486</v>
+      </c>
+      <c r="C6">
         <v>0.7921607576674977</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.9318218273108161</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.2781826109481148</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.0853613239603164</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.8154145209193131</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.2549610360343397</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.3220988779821221</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.5277048620751383</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.4514401196459589</v>
-      </c>
-      <c r="K6">
-        <v>-0.2849062236914031</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -757,34 +757,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-1.102517691576566</v>
+      </c>
+      <c r="C7">
         <v>-0.4488784752138651</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.08533454030543387</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.9861103851850633</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.08426517176858947</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.4927947422478724</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.6984007263408886</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.2807442553802086</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.4556020879571533</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.4735719026113467</v>
-      </c>
-      <c r="K7">
-        <v>-0.4501670370710099</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -792,34 +792,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.1737007515684039</v>
+      </c>
+      <c r="C8">
         <v>-0.7270750933112256</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.3433004636424272</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.2337594503740346</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.4393654344670508</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.5397795472540464</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.1965667960833156</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.2145366107375089</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-0.1911317451971721</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.5563061809639129</v>
-      </c>
-      <c r="K8">
-        <v>0.09951333620703928</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -827,34 +827,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.8389029408811082</v>
+      </c>
+      <c r="C9">
         <v>0.2618430268646463</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.05623704277163011</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.035382024492727</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.2990356811553654</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.281065866501172</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.3044707320415089</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.06070370372523193</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.5951158134457202</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.4642449325042965</v>
-      </c>
-      <c r="K9">
-        <v>0.3547271335801747</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -862,34 +862,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.6954484448595206</v>
+      </c>
+      <c r="C10">
         <v>0.2836965368615766</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.4526498064757853</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.4706196211299787</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.4472147555896419</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.8123891913563827</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.1565696741854305</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.2874405551268542</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.3969583540509761</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-1.226736141118529</v>
-      </c>
-      <c r="K10">
-        <v>-0.6462103519498816</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -897,34 +897,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-0.2465870357053012</v>
+      </c>
+      <c r="C11">
         <v>-0.2645568503594945</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.2411519848191577</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.6063264205858985</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.04949309658505369</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.08137778435637</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.1908955832804919</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-1.020673370348045</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.4401475811793975</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.5235336826091774</v>
-      </c>
-      <c r="K11">
-        <v>-0.7414435601489361</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -932,34 +932,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>-0.1975260465718366</v>
+      </c>
+      <c r="C12">
         <v>-0.5627004823385774</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.09311903483237477</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-0.03775184610904891</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.1472696450331708</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.9770474321007241</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.3965216429320764</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.4799077443618563</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.697817621901615</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.8659601817345554</v>
-      </c>
-      <c r="K12">
-        <v>-0.4700235243475083</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -967,34 +967,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.4425040297996861</v>
+      </c>
+      <c r="C13">
         <v>0.3116331488582624</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.2021153499341405</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-0.6276624371334127</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-0.04713664796476502</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.130522749394545</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-0.3484326269343037</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.215345176701867</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-0.1206385293801969</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.319975887149931</v>
-      </c>
-      <c r="K13">
-        <v>0.2195317728891086</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1002,34 +1002,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.2720610750631522</v>
+      </c>
+      <c r="C14">
         <v>-1.101838862130705</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.5213130729620578</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.6046991743918377</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.8226090519315964</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.741168751704574</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.5948149543774897</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.8457994621526386</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-0.2546446521081841</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.464919050277854</v>
-      </c>
-      <c r="K14">
-        <v>0.1336251531058764</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1037,34 +1037,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.1065518669046048</v>
+      </c>
+      <c r="C15">
         <v>-0.1899379683343848</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.4078478458741435</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.155929957762027</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-0.1800537483200367</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.260560668210092</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.1601165539492688</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.05015784422040104</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.5483863591633293</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.2227177183881149</v>
-      </c>
-      <c r="K15">
-        <v>0.9398975197637186</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1072,34 +1072,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.1895682054566924</v>
+      </c>
+      <c r="C16">
         <v>1.374209598179478</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.03822589209741434</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.478840308627543</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.3783961943667199</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.16812179619705</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.7666659995807804</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.440997358805566</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1.15817716018117</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2.854049435818871</v>
-      </c>
-      <c r="K16">
-        <v>9.698296230743448</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1107,34 +1107,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>1.157000698704573</v>
+      </c>
+      <c r="C17">
         <v>-0.1789830073774904</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.261631409152638</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.1611872948918152</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-0.0490871032778547</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.5494571001058757</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.2237884593306613</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.9409682607062649</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2.636840536343966</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>9.481087331268544</v>
-      </c>
-      <c r="K17">
-        <v>-8.069566751832767</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1142,34 +1142,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-0.4886691766355519</v>
+      </c>
+      <c r="C18">
         <v>0.9519452398945764</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-0.1484988743662463</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.3587732725359162</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.2397709308478142</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.0858977099274002</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.6312820914482035</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.327154367085904</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>9.171401162010483</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-8.379252921090828</v>
-      </c>
-      <c r="K18">
-        <v>-0.6698563214346814</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1177,34 +1177,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>1.10624937372658</v>
+      </c>
+      <c r="C19">
         <v>0.005805259465757717</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-0.2044691387039121</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.3940750646798182</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.06840642390460383</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.7855862252802075</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2.481458500917908</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>9.325705295842486</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-8.224948787258825</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-0.5155521876026774</v>
-      </c>
-      <c r="K19">
-        <v>1.067360473284234</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1212,34 +1212,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-0.6446211617534254</v>
+      </c>
+      <c r="C20">
         <v>-0.8548955599230954</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.256351356539365</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.5820199973145794</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.1351598040610243</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.831032079698725</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>8.675278874623302</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-8.875375208478008</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-1.165978608821861</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.416934052065051</v>
-      </c>
-      <c r="K20">
-        <v>-2.549352940284205</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1247,34 +1247,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.6387305113048862</v>
+      </c>
+      <c r="C21">
         <v>-0.04018630792115581</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-0.3658549486963703</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.3513248526792334</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2.047197128316934</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>8.891443923241512</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-8.659210159859798</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-0.9498135602036515</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.6330991006832601</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-2.333187891665996</v>
-      </c>
-      <c r="K21">
-        <v>-0.06915673700153271</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1282,34 +1282,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.3668428211138005</v>
+      </c>
+      <c r="C22">
         <v>0.04117418033858611</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.7583539817141898</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2.454226257351891</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>9.298473052276469</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-8.252181030824842</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-0.5427844311686951</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1.040128229718217</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-1.926158762631039</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.3378723920334236</v>
-      </c>
-      <c r="K22">
-        <v>-0.113281762893315</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1317,34 +1317,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>-0.4578680368388337</v>
+      </c>
+      <c r="C23">
         <v>0.25931176453677</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1.955184040174471</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>8.799430835099049</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-8.751223248002262</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-1.041826648346115</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.5410860125407967</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-2.425200979808459</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-0.1611698251439962</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-0.6123239800707349</v>
-      </c>
-      <c r="K23">
-        <v>-0.752688043584709</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1352,34 +1352,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>0.4181606776922825</v>
+      </c>
+      <c r="C24">
         <v>2.114032953329983</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>8.958279748254562</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-8.592374334846749</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-0.8829777351906024</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.6999349256963092</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-2.266352066652947</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-0.002320911988483623</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-0.4534750669152223</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-0.5938391304291964</v>
-      </c>
-      <c r="K24">
-        <v>-0.06760011956697885</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1387,34 +1387,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>2.057869132359739</v>
+      </c>
+      <c r="C25">
         <v>8.902115927284317</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-8.648538155816993</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-0.9391415561608464</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.6437711047260652</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-2.322515887623191</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-0.05848473295872768</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-0.5096388878854663</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-0.6500029513994404</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-0.1237639405372229</v>
-      </c>
-      <c r="K25">
-        <v>-0.2655928872764969</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1422,34 +1422,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>6.652313087672924</v>
+      </c>
+      <c r="C26">
         <v>-10.89834099542839</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-3.188944395772239</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-1.606031734885327</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-4.572318727234583</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-2.30828757257012</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-2.759441727496859</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-2.899805791010833</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-2.373566780148615</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-2.515395726887889</v>
-      </c>
-      <c r="K26">
-        <v>-1.872421105485825</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1457,34 +1457,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>-18.36749132628568</v>
+      </c>
+      <c r="C27">
         <v>-10.65809472662953</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-9.07518206574262</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-12.04146905809188</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-9.777437903427414</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-10.22859205835415</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-10.36895612186813</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-9.842717111005909</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-9.984546057745183</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-9.341571436343118</v>
-      </c>
-      <c r="K27">
-        <v>-9.217158730013535</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1492,34 +1492,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>7.513167073507937</v>
+      </c>
+      <c r="C28">
         <v>9.096079734394849</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>6.129792742045593</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>8.393823896710055</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>7.942669741783317</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>7.802305678269343</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>8.32854468913156</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>8.186715742392286</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>8.82969036379435</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>8.954103070123933</v>
-      </c>
-      <c r="K28">
-        <v>8.556472864086315</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1527,34 +1527,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>0.9564081874156993</v>
+      </c>
+      <c r="C29">
         <v>-2.009878804933557</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.2541523497309064</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-0.1970018051958322</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-0.3373658687098063</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.1888731421524112</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.0470441954131372</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.6900188168152011</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.8144315231447835</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.4168013171071663</v>
-      </c>
-      <c r="K29">
-        <v>0.3406326034063205</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1562,34 +1562,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>-4.157449276732949</v>
+      </c>
+      <c r="C30">
         <v>-1.893418122068486</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-2.344572276995224</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-2.484936340509199</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-1.958697329646981</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-2.100526276386255</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-1.457551654984191</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-1.333138948654609</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-1.730769154692226</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-1.806937868393072</v>
-      </c>
-      <c r="K30">
-        <v>-1.53061581027015</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1597,34 +1597,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>1.546611864454844</v>
+      </c>
+      <c r="C31">
         <v>1.095457709528105</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.9550936460141312</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.481332656876349</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.339503710137075</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1.982478331539139</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2.106891037868721</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1.709260831831104</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.633092118130258</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1.90941417625318</v>
-      </c>
-      <c r="K31">
-        <v>1.738194353941456</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1632,34 +1632,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>1.156631887942306</v>
+      </c>
+      <c r="C32">
         <v>1.016267824428332</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1.54250683529055</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1.400677888551276</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2.04365250995334</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2.168065216282922</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1.770435010245305</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>1.694266296544459</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>1.970588354667381</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>1.799368532355657</v>
-      </c>
-      <c r="K32">
-        <v>1.952515937864398</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1667,34 +1667,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>-1.025188112727922</v>
+      </c>
+      <c r="C33">
         <v>-0.4989491018657047</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-0.6407780486049788</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.002196572797085183</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.1266092791266676</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-0.2710209269109496</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-0.3471896406117954</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-0.07086758248887381</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-0.2420874048005978</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-0.08893999929185659</v>
-      </c>
-      <c r="K33">
-        <v>-0.3663687737149753</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1702,34 +1702,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>0.08364543516793629</v>
+      </c>
+      <c r="C34">
         <v>-0.05818351157133772</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.5847911098307261</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.7092038161603086</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.3115736101226914</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.2354048964218456</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.5117269545447671</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.3405071322330432</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.4936545377417844</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.2162257633186657</v>
-      </c>
-      <c r="K34">
-        <v>0.05323806995971928</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1737,34 +1737,34 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>-0.1538585523806955</v>
+      </c>
+      <c r="C35">
         <v>0.4891160690213684</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.6135287753509509</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.2158985693133336</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.1397298556124878</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.4160519137354094</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.2448320914236854</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.3979794969324266</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.1205507225093079</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>-0.04243697084963852</v>
-      </c>
-      <c r="K35">
-        <v>-0.1665195462441563</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1772,34 +1772,34 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>0.7495351060200912</v>
+      </c>
+      <c r="C36">
         <v>0.8739478123496736</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.4763176063120564</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.4001488926112106</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.6764709507341322</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.5052511284224082</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.6583985339311494</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.3809697595080307</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.2179820661490843</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>0.09389949075456649</v>
-      </c>
-      <c r="K36">
-        <v>0.6100525277605273</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1807,34 +1807,34 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>0.03849281619118239</v>
+      </c>
+      <c r="C37">
         <v>-0.3591373898464348</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>-0.4353061035472806</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-0.158984045424359</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>-0.330203867736083</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>-0.1770564622273418</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>-0.4544852366504605</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>-0.617472930009407</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>-0.7415555054039247</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>-0.2254024683979639</v>
-      </c>
-      <c r="K37">
-        <v>-0.4353061035472806</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,30 +1842,33 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>-0.2590580299438133</v>
+      </c>
+      <c r="C38">
         <v>-0.3352267436446591</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-0.0589046855217375</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-0.2301245078334615</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>-0.07697710232472027</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>-0.354405876747839</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>-0.5173935701067854</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>-0.6414761455013032</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>-0.1253231084953424</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>-0.3352267436446591</v>
       </c>
     </row>
@@ -1874,27 +1877,30 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>0.01855976243503714</v>
+      </c>
+      <c r="C39">
         <v>0.2948818205579588</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.1236619982462347</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.276809403754976</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>-0.0006193706681427817</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>-0.1636070640270892</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>-0.287689639421607</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.2284633975843539</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.01855976243503714</v>
       </c>
     </row>
@@ -1903,24 +1909,27 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>0.1467044301255134</v>
+      </c>
+      <c r="C40">
         <v>-0.0245153921862106</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.1286320133225306</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>-0.1487967611005881</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>-0.3117844544595345</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>-0.4358670298540523</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.08028600715190851</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>-0.1296176279974082</v>
       </c>
     </row>
@@ -1929,21 +1938,24 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>-0.1819613811903656</v>
+      </c>
+      <c r="C41">
         <v>-0.02881397568162436</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>-0.3062427501047431</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>-0.4692304434636895</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>-0.5933130188582073</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>-0.07715998185224648</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>-0.2870636170015632</v>
       </c>
     </row>
@@ -1952,18 +1964,21 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>0.4718454808444464</v>
+      </c>
+      <c r="C42">
         <v>0.1944167064213277</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.0314290130623813</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>-0.09265356233213651</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.4234994746738243</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.2135958395245076</v>
       </c>
     </row>
@@ -1972,15 +1987,18 @@
         <v>51</v>
       </c>
       <c r="B43">
+        <v>-0.08594117411414147</v>
+      </c>
+      <c r="C43">
         <v>-0.2489288674730878</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>-0.3730114428676057</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.1431415941383551</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>-0.06676204101096155</v>
       </c>
     </row>
@@ -1989,12 +2007,15 @@
         <v>52</v>
       </c>
       <c r="B44">
+        <v>-0.07695400962807622</v>
+      </c>
+      <c r="C44">
         <v>-0.201036585022594</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.3151164519833668</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.1052128168340501</v>
       </c>
     </row>
@@ -2003,9 +2024,12 @@
         <v>53</v>
       </c>
       <c r="B45">
+        <v>-0.5068991247689255</v>
+      </c>
+      <c r="C45">
         <v>0.009253912237035311</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>-0.2006497229122814</v>
       </c>
     </row>
@@ -2014,12 +2038,18 @@
         <v>54</v>
       </c>
       <c r="B46">
+        <v>0.6215838649243215</v>
+      </c>
+      <c r="C46">
         <v>0.4116802297750048</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="B47">
+        <v>-0.2766911554241067</v>
       </c>
     </row>
   </sheetData>
